--- a/data/trans_orig/P5707-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5707-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>348381</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>321161</v>
+        <v>323853</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>375282</v>
+        <v>374041</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5019807517020635</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.462759416780579</v>
+        <v>0.4666395980170546</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5407434618627924</v>
+        <v>0.5389544074234344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>320</v>
@@ -765,19 +765,19 @@
         <v>312976</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>286130</v>
+        <v>284455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>338383</v>
+        <v>336541</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4546750691266013</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.415674824196965</v>
+        <v>0.4132409881191204</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4915845515420711</v>
+        <v>0.4889085604664118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>660</v>
@@ -786,19 +786,19 @@
         <v>661357</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>626301</v>
+        <v>622938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>698354</v>
+        <v>699318</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4784247742713767</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4530652349373301</v>
+        <v>0.4506324265405418</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5051883351328212</v>
+        <v>0.5058862692923346</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>223827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200901</v>
+        <v>199822</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248635</v>
+        <v>248140</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3225114480212249</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2894772437244738</v>
+        <v>0.2879226151678034</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3582576193582273</v>
+        <v>0.3575440101586382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>227</v>
@@ -836,19 +836,19 @@
         <v>223896</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>198746</v>
+        <v>200160</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247403</v>
+        <v>248753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3252637871185257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2887279381387576</v>
+        <v>0.2907821329366355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3594135139755183</v>
+        <v>0.3613746501698892</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>450</v>
@@ -857,19 +857,19 @@
         <v>447722</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>410847</v>
+        <v>414761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>482760</v>
+        <v>480684</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3238819818372034</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2972063356414804</v>
+        <v>0.3000374281893549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3492284548201089</v>
+        <v>0.3477260274719844</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>107255</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>90380</v>
+        <v>89109</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127700</v>
+        <v>126145</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1545427457224302</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1302276434669949</v>
+        <v>0.1283965799301775</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1840021559482481</v>
+        <v>0.1817614344499332</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>116</v>
@@ -907,19 +907,19 @@
         <v>116769</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97645</v>
+        <v>98254</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>136964</v>
+        <v>139697</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1696364152370076</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1418530771617979</v>
+        <v>0.1427379252072298</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1989742036222277</v>
+        <v>0.2029438222665529</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>223</v>
@@ -928,19 +928,19 @@
         <v>224024</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198066</v>
+        <v>198889</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>251430</v>
+        <v>252405</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1620586744454639</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.143280511298196</v>
+        <v>0.1438762467288947</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1818839129532616</v>
+        <v>0.1825893242180853</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>13586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7848</v>
+        <v>7338</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23397</v>
+        <v>24251</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01957651750666924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01130820189948872</v>
+        <v>0.01057319203413008</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03371339013960832</v>
+        <v>0.03494296180714117</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -978,19 +978,19 @@
         <v>31960</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21787</v>
+        <v>22003</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45761</v>
+        <v>44004</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04642953636123105</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03165046856834014</v>
+        <v>0.03196522684093781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06647955116065601</v>
+        <v>0.06392636203708367</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -999,19 +999,19 @@
         <v>45546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33951</v>
+        <v>33157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63539</v>
+        <v>61571</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03294804227168707</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02456012337933589</v>
+        <v>0.02398540981258419</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04596385090237123</v>
+        <v>0.04454045237625481</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4852</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001388537047612242</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006991669493364158</v>
+        <v>0.007205187076873803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1049,19 +1049,19 @@
         <v>2750</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7657</v>
+        <v>7434</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003995192156634334</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001155879962497281</v>
+        <v>0.001151640955208046</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01112365221834801</v>
+        <v>0.01079916046768636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1070,19 +1070,19 @@
         <v>3714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8817</v>
+        <v>8958</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002686527174269005</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0006939455244290695</v>
+        <v>0.0006949627323025593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006378012607737605</v>
+        <v>0.0064802923389052</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>552518</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>522622</v>
+        <v>519641</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>583731</v>
+        <v>583605</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5744627048453597</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5433786152962999</v>
+        <v>0.5402795807898767</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6069155507664881</v>
+        <v>0.6067842714984825</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>528</v>
@@ -1195,19 +1195,19 @@
         <v>556021</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>523781</v>
+        <v>523009</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>585906</v>
+        <v>585182</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5741687712302344</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5408769232416082</v>
+        <v>0.5400789953011201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6050293091705202</v>
+        <v>0.6042816978392676</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1036</v>
@@ -1216,19 +1216,19 @@
         <v>1108539</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1065653</v>
+        <v>1064622</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1154878</v>
+        <v>1152680</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5743152360362349</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5520964307166818</v>
+        <v>0.5515626050858704</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.598322718042091</v>
+        <v>0.5971839449598056</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>260627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>232922</v>
+        <v>233316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>287788</v>
+        <v>290536</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2709781059140938</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2421734283113129</v>
+        <v>0.2425830516136541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2992176555066101</v>
+        <v>0.30207540129287</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -1266,19 +1266,19 @@
         <v>263798</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>236854</v>
+        <v>238474</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>290688</v>
+        <v>295707</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2724078340215953</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2445841584436304</v>
+        <v>0.2462575062359197</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3001760099042515</v>
+        <v>0.3053588539745252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>491</v>
@@ -1287,19 +1287,19 @@
         <v>524425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>480967</v>
+        <v>483925</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>562727</v>
+        <v>563698</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2716954117632245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2491808969553379</v>
+        <v>0.250713337671156</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2915391769286603</v>
+        <v>0.2920425367893119</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>118249</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97831</v>
+        <v>96618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>139131</v>
+        <v>138898</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1229451799254637</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.101716225080132</v>
+        <v>0.1004549851868154</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1446572051322891</v>
+        <v>0.1444151518063736</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -1337,19 +1337,19 @@
         <v>125032</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>104331</v>
+        <v>101766</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149409</v>
+        <v>146577</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1291132533804215</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1077365030160234</v>
+        <v>0.105087230186795</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1542849939501516</v>
+        <v>0.15136121722083</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>228</v>
@@ -1358,19 +1358,19 @@
         <v>243281</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>214974</v>
+        <v>214283</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>273797</v>
+        <v>275036</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.126039750944873</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1113744875338423</v>
+        <v>0.1110165903432557</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1418493244052567</v>
+        <v>0.1424913668880473</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>23596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15006</v>
+        <v>14306</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35625</v>
+        <v>35992</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02453346280082544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01560198107820333</v>
+        <v>0.01487425572129943</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03704042415897933</v>
+        <v>0.03742187215525183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1408,19 +1408,19 @@
         <v>20402</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12251</v>
+        <v>12802</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31630</v>
+        <v>32378</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02106830399320614</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01265090595740794</v>
+        <v>0.01321970127755492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03266261504459191</v>
+        <v>0.03343438371781979</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1429,19 +1429,19 @@
         <v>43999</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31970</v>
+        <v>32500</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58629</v>
+        <v>60558</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02279496534258093</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01656316174975972</v>
+        <v>0.01683775801111431</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03037458630472679</v>
+        <v>0.03137389291892582</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>6810</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2773</v>
+        <v>2842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15423</v>
+        <v>14302</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007080546514257395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002882626351241161</v>
+        <v>0.002954738316383515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01603590353028237</v>
+        <v>0.01487011634997534</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>3139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10183</v>
+        <v>9100</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003241837374542659</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001002254924972133</v>
+        <v>0.001006287049724502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01051585463055425</v>
+        <v>0.009396899510160778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1500,19 +1500,19 @@
         <v>9949</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4696</v>
+        <v>5136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19503</v>
+        <v>19605</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005154635913086693</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002432679708155182</v>
+        <v>0.002661013531211675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01010392160515218</v>
+        <v>0.01015684397094498</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>417100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>388742</v>
+        <v>390727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>439500</v>
+        <v>443853</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6147309441870512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5729358996713012</v>
+        <v>0.5758611669823175</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6477441728767417</v>
+        <v>0.6541591138436672</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>419</v>
@@ -1625,19 +1625,19 @@
         <v>410662</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>382967</v>
+        <v>383862</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>435843</v>
+        <v>436004</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6005230433351175</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5600228941816474</v>
+        <v>0.5613315346315896</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6373460281251687</v>
+        <v>0.6375804583481792</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>808</v>
@@ -1646,19 +1646,19 @@
         <v>827763</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>788251</v>
+        <v>793914</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>864314</v>
+        <v>863052</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6075991895067104</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.578596727560263</v>
+        <v>0.5827533655288155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6344285310481759</v>
+        <v>0.6335020672014334</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>176688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154880</v>
+        <v>153466</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202665</v>
+        <v>199187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2604058761753361</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.22826507774409</v>
+        <v>0.2261812394906701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2986922089074659</v>
+        <v>0.2935650460179897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>171</v>
@@ -1696,19 +1696,19 @@
         <v>163509</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>142342</v>
+        <v>143862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>186756</v>
+        <v>186248</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.239103959344631</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2081512512022169</v>
+        <v>0.2103730267631947</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2730982313115874</v>
+        <v>0.2723559452575867</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>342</v>
@@ -1717,19 +1717,19 @@
         <v>340197</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>306327</v>
+        <v>307822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>371125</v>
+        <v>370280</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2497132308197111</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2248518550887475</v>
+        <v>0.2259490235799058</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2724151971743791</v>
+        <v>0.271795206296821</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>64639</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50491</v>
+        <v>51020</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81464</v>
+        <v>81701</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09526583684260813</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07441445015348287</v>
+        <v>0.07519457257455192</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1200626622555071</v>
+        <v>0.120412118889787</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -1767,19 +1767,19 @@
         <v>81692</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63810</v>
+        <v>64674</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97231</v>
+        <v>100077</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1194607605157281</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09331113616609271</v>
+        <v>0.0945749446069865</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1421833213292064</v>
+        <v>0.146345015249591</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>143</v>
@@ -1788,19 +1788,19 @@
         <v>146331</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>124724</v>
+        <v>126651</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>169389</v>
+        <v>171123</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1074106471101132</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09155081479644518</v>
+        <v>0.09296479702599858</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1243360029898921</v>
+        <v>0.1256086115221494</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>15684</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9010</v>
+        <v>9326</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26967</v>
+        <v>26680</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02311587351489525</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01327913384993186</v>
+        <v>0.0137443171991665</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03974440424685918</v>
+        <v>0.03932177258477672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1838,19 +1838,19 @@
         <v>26904</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17177</v>
+        <v>18397</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38283</v>
+        <v>40565</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03934223922109909</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0251178236756173</v>
+        <v>0.02690298892779937</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05598186063545908</v>
+        <v>0.05931988949080395</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -1859,19 +1859,19 @@
         <v>42588</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30915</v>
+        <v>30345</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58616</v>
+        <v>59146</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03126081067177223</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02269233712633956</v>
+        <v>0.02227422535095257</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04302593323328273</v>
+        <v>0.04341438763172234</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>4398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12519</v>
+        <v>11287</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006481469280109361</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001435238903340658</v>
+        <v>0.0014521183862018</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01845053965114551</v>
+        <v>0.01663469047949304</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4643</v>
+        <v>5379</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001569997583424364</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006789789368041869</v>
+        <v>0.007866023616654701</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1930,19 +1930,19 @@
         <v>5471</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1079</v>
+        <v>1658</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12781</v>
+        <v>13407</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004016121891692949</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0007921464086729312</v>
+        <v>0.00121673628250061</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.00938173350746367</v>
+        <v>0.00984084757960981</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>541255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>509878</v>
+        <v>512253</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>571082</v>
+        <v>571013</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5744453465339722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.541144434923596</v>
+        <v>0.5436645250583011</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6061018246767683</v>
+        <v>0.6060283910504485</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>569</v>
@@ -2055,19 +2055,19 @@
         <v>589730</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>554920</v>
+        <v>555249</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>622840</v>
+        <v>619118</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5683420153459512</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5347949474230371</v>
+        <v>0.5351114364539117</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6002511322582754</v>
+        <v>0.5966642893106235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1139</v>
@@ -2076,19 +2076,19 @@
         <v>1130985</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1087595</v>
+        <v>1092690</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1173566</v>
+        <v>1174973</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5712466201005365</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5493307638594318</v>
+        <v>0.5519041963100855</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5927540303732006</v>
+        <v>0.5934644967247555</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>257996</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>232410</v>
+        <v>232455</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>283530</v>
+        <v>286357</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2738168382884709</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2466614506377778</v>
+        <v>0.2467088436824794</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3009167628887272</v>
+        <v>0.303916645682033</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>250</v>
@@ -2126,19 +2126,19 @@
         <v>259089</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>230866</v>
+        <v>233349</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>289023</v>
+        <v>288582</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2496930260357732</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2224931887216584</v>
+        <v>0.2248862194598172</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2785412133409962</v>
+        <v>0.2781156156795807</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>521</v>
@@ -2147,19 +2147,19 @@
         <v>517086</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>479327</v>
+        <v>476139</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>555876</v>
+        <v>556181</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2611736646590608</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2421021982035409</v>
+        <v>0.2404918273990098</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2807659497865522</v>
+        <v>0.2809199726757097</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>101349</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>85087</v>
+        <v>83772</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>122931</v>
+        <v>121093</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1075636681983233</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09030429627082247</v>
+        <v>0.08890875601356645</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1304690910647452</v>
+        <v>0.1285183846105475</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>118</v>
@@ -2197,19 +2197,19 @@
         <v>124934</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>106675</v>
+        <v>105327</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>149649</v>
+        <v>148133</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1204029731905908</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1028064824154519</v>
+        <v>0.1015067901737911</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1442213851345445</v>
+        <v>0.1427610502190528</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>228</v>
@@ -2218,19 +2218,19 @@
         <v>226283</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>200086</v>
+        <v>198032</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>253383</v>
+        <v>251537</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1142926860085177</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1010608851322171</v>
+        <v>0.1000234547648177</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1279805305702957</v>
+        <v>0.1270480142219099</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>38199</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27297</v>
+        <v>26591</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52944</v>
+        <v>51249</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04054137644625024</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02897128395031365</v>
+        <v>0.02822130508511076</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05619084689514563</v>
+        <v>0.05439163237846591</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -2268,19 +2268,19 @@
         <v>54938</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40529</v>
+        <v>41157</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71234</v>
+        <v>71255</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05294579137149592</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03905947738256368</v>
+        <v>0.03966480834458769</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06865079282558159</v>
+        <v>0.06867066960186365</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -2289,19 +2289,19 @@
         <v>93137</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>75681</v>
+        <v>76546</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>112614</v>
+        <v>116651</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04704247047020946</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03822537010973377</v>
+        <v>0.03866255199273558</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05688011842475092</v>
+        <v>0.05891911149854191</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8071</v>
+        <v>8453</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003632770532983306</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0009333102297539745</v>
+        <v>0.0009199151048696152</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008565420585088546</v>
+        <v>0.008970823750394728</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -2339,19 +2339,19 @@
         <v>8940</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4397</v>
+        <v>4137</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16733</v>
+        <v>17181</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008616194056188898</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004237403879759461</v>
+        <v>0.00398674905988039</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01612636410784356</v>
+        <v>0.01655814437513572</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2360,19 +2360,19 @@
         <v>12363</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6762</v>
+        <v>6888</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20760</v>
+        <v>20655</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006244558761675439</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003415547233382226</v>
+        <v>0.003479229063008554</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01048573258979363</v>
+        <v>0.01043251537762249</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1859254</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1804215</v>
+        <v>1796618</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1914781</v>
+        <v>1915030</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5674439215453287</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5506459665813785</v>
+        <v>0.5483273492726258</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5843907725519393</v>
+        <v>0.5844665328477755</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1836</v>
@@ -2485,19 +2485,19 @@
         <v>1869389</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1809687</v>
+        <v>1811430</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1928268</v>
+        <v>1923366</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5533656371166173</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5356928784783698</v>
+        <v>0.5362090219968159</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5707947104415286</v>
+        <v>0.5693436555408006</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3643</v>
@@ -2506,19 +2506,19 @@
         <v>3728644</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3641239</v>
+        <v>3640884</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3802410</v>
+        <v>3812166</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5602972326586261</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5471630060017282</v>
+        <v>0.5471096541603243</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5713819560929544</v>
+        <v>0.5728479661990279</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>919138</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>868094</v>
+        <v>868974</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>964829</v>
+        <v>977265</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2805205184455022</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2649421572544844</v>
+        <v>0.2652106444048656</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2944654723393656</v>
+        <v>0.2982610856472719</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>892</v>
@@ -2556,19 +2556,19 @@
         <v>910292</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>858092</v>
+        <v>856928</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>959602</v>
+        <v>957925</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2694593202215548</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2540074294963853</v>
+        <v>0.2536627165910527</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.284055696763671</v>
+        <v>0.283559454177341</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1804</v>
@@ -2577,19 +2577,19 @@
         <v>1829430</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1758027</v>
+        <v>1757563</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1907349</v>
+        <v>1907862</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2749054207522432</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2641757720476074</v>
+        <v>0.2641061593898641</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2866142743964501</v>
+        <v>0.2866912395920088</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>391491</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>354309</v>
+        <v>355219</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>429311</v>
+        <v>430093</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1194828756704122</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.108134985151449</v>
+        <v>0.1084128705919416</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1310257037622132</v>
+        <v>0.1312643928484178</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>429</v>
@@ -2627,19 +2627,19 @@
         <v>448428</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>406770</v>
+        <v>411024</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>487043</v>
+        <v>490341</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1327410021510116</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1204097771509847</v>
+        <v>0.1216688920959164</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1441715883921891</v>
+        <v>0.1451477603872169</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>822</v>
@@ -2648,19 +2648,19 @@
         <v>839919</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>783693</v>
+        <v>786146</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>892681</v>
+        <v>901043</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1262132202416698</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1177643122487238</v>
+        <v>0.1181329148582258</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1341417003333448</v>
+        <v>0.1353982697236217</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>91066</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>73025</v>
+        <v>72536</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>112757</v>
+        <v>112005</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02779329550943715</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02228713831762764</v>
+        <v>0.02213792058820492</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03441346474611034</v>
+        <v>0.03418388231998689</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>124</v>
@@ -2698,19 +2698,19 @@
         <v>134204</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>113032</v>
+        <v>111419</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>159200</v>
+        <v>156277</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03972636960165114</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03345918677667649</v>
+        <v>0.03298162130688645</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04712556515990486</v>
+        <v>0.04626010679053904</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>212</v>
@@ -2719,19 +2719,19 @@
         <v>225270</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>196516</v>
+        <v>194162</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>258418</v>
+        <v>257414</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03385099156117345</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02953006979567623</v>
+        <v>0.02917637817242259</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03883207439870851</v>
+        <v>0.03868115421746823</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>15594</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8182</v>
+        <v>9106</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26275</v>
+        <v>26821</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004759388829319794</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002496999390956092</v>
+        <v>0.002779153559105515</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008019179996890296</v>
+        <v>0.00818580227069275</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -2769,19 +2769,19 @@
         <v>15904</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9372</v>
+        <v>9538</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>26367</v>
+        <v>25670</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004707670909165099</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002774195340424226</v>
+        <v>0.002823252795432613</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.007805150710865628</v>
+        <v>0.007598744013199157</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>29</v>
@@ -2790,19 +2790,19 @@
         <v>31498</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22048</v>
+        <v>20482</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>44055</v>
+        <v>45468</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004733134786287453</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003313081902116074</v>
+        <v>0.003077821440130012</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006619998415753213</v>
+        <v>0.006832345997559436</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>453806</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>427665</v>
+        <v>425677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>479978</v>
+        <v>478907</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6459833526760667</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6087717972358846</v>
+        <v>0.6059428110673245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6832387006738665</v>
+        <v>0.6817142178590176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>401</v>
@@ -3155,19 +3155,19 @@
         <v>426763</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>396854</v>
+        <v>399952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>451595</v>
+        <v>451708</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6122420493856507</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5693335399421647</v>
+        <v>0.573777648627277</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6478662280829908</v>
+        <v>0.6480275026067083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>839</v>
@@ -3176,19 +3176,19 @@
         <v>880569</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>845617</v>
+        <v>845653</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>919373</v>
+        <v>920369</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6291784406621451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6042044806897812</v>
+        <v>0.6042305374281393</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6569040781133525</v>
+        <v>0.6576160541696157</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>186625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>164909</v>
+        <v>162828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213921</v>
+        <v>210970</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2656565375360005</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2347448913530929</v>
+        <v>0.2317823309992742</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3045123448128575</v>
+        <v>0.3003120467412689</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>189</v>
@@ -3226,19 +3226,19 @@
         <v>205022</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>181503</v>
+        <v>181533</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231418</v>
+        <v>230378</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2941276899465458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2603868635036043</v>
+        <v>0.2604305760166172</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3319957975793248</v>
+        <v>0.3305041402724556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>363</v>
@@ -3247,19 +3247,19 @@
         <v>391646</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>360123</v>
+        <v>355227</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>426805</v>
+        <v>425803</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2798366421714389</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2573124888675592</v>
+        <v>0.2538146225754266</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3049581023195534</v>
+        <v>0.3042419167001248</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>42877</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31324</v>
+        <v>31292</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56243</v>
+        <v>56881</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0610340861541174</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04458934527023974</v>
+        <v>0.04454374750611217</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08006049967273141</v>
+        <v>0.08096958320473271</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -3297,19 +3297,19 @@
         <v>41587</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30531</v>
+        <v>28809</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56452</v>
+        <v>55781</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05966175214493036</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0437996508652129</v>
+        <v>0.04133048478736637</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08098689428155854</v>
+        <v>0.0800244650079967</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>80</v>
@@ -3318,19 +3318,19 @@
         <v>84464</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>67348</v>
+        <v>68301</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>105093</v>
+        <v>105611</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0603505929268522</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04812078141992419</v>
+        <v>0.04880206339846044</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07509038054871034</v>
+        <v>0.07546038141861942</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>13189</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7519</v>
+        <v>7096</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22437</v>
+        <v>22627</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01877367953857318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0107031448331788</v>
+        <v>0.01010030938876287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03193870796084293</v>
+        <v>0.0322084826199996</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -3368,19 +3368,19 @@
         <v>17658</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10727</v>
+        <v>10081</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28716</v>
+        <v>27024</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02533180595928534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01538919794370699</v>
+        <v>0.01446199298284852</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04119580911755794</v>
+        <v>0.03876916977999515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -3389,19 +3389,19 @@
         <v>30846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20933</v>
+        <v>21694</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42986</v>
+        <v>44069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02203996526937796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01495708240935474</v>
+        <v>0.01550089607734539</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03071403610989881</v>
+        <v>0.0314880833872898</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>6008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2169</v>
+        <v>2143</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12681</v>
+        <v>12549</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008552344095242304</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003088046600255076</v>
+        <v>0.003050397798041272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01805113298078863</v>
+        <v>0.01786339297614616</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3439,19 +3439,19 @@
         <v>6020</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2835</v>
+        <v>2107</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12900</v>
+        <v>12665</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00863670256358782</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004066596344181656</v>
+        <v>0.003022029671297957</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01850608543954268</v>
+        <v>0.01817005166642685</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -3460,19 +3460,19 @@
         <v>12028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6810</v>
+        <v>6489</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21044</v>
+        <v>20161</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008594358970185746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004866073252560586</v>
+        <v>0.004636498388824723</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01503636752754856</v>
+        <v>0.01440536137543566</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>608685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>574323</v>
+        <v>574466</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>641847</v>
+        <v>636399</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5997455638741583</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5658883941717164</v>
+        <v>0.5660297762380153</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6324203024726577</v>
+        <v>0.6270525559579565</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>552</v>
@@ -3585,19 +3585,19 @@
         <v>603333</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>568810</v>
+        <v>564022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>635012</v>
+        <v>635652</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5856839829065104</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5521704439602095</v>
+        <v>0.5475229621517832</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6164363489218091</v>
+        <v>0.6170573055997187</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1110</v>
@@ -3606,19 +3606,19 @@
         <v>1212017</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1169898</v>
+        <v>1160175</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1261159</v>
+        <v>1258442</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5926624160715301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5720667897902225</v>
+        <v>0.567312211608502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6166921390151165</v>
+        <v>0.6153637137226557</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>269163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>241888</v>
+        <v>240342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>299476</v>
+        <v>298586</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2652103362689002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2383360168190139</v>
+        <v>0.2368122742265828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2950776371261684</v>
+        <v>0.2942008259369484</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>278</v>
@@ -3656,19 +3656,19 @@
         <v>305934</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>275999</v>
+        <v>276308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337955</v>
+        <v>339228</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2969846872483934</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2679251875311349</v>
+        <v>0.2682251913255951</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3280685604094644</v>
+        <v>0.3293051638141589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>528</v>
@@ -3677,19 +3677,19 @@
         <v>575097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>531224</v>
+        <v>534104</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>615192</v>
+        <v>618553</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2812158213447349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.259762405147437</v>
+        <v>0.2611707335252295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3008220180480601</v>
+        <v>0.302465164893981</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>106430</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87328</v>
+        <v>86028</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>129139</v>
+        <v>128133</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1048672222546371</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08604556700932518</v>
+        <v>0.0847645428964154</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1272424225423127</v>
+        <v>0.126251688600702</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>85</v>
@@ -3727,19 +3727,19 @@
         <v>92986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>73394</v>
+        <v>74875</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113078</v>
+        <v>111969</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09026636512986548</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07124683514413542</v>
+        <v>0.07268433323042393</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1097704708880281</v>
+        <v>0.1086932860622622</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>183</v>
@@ -3748,19 +3748,19 @@
         <v>199417</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>172317</v>
+        <v>173612</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>228783</v>
+        <v>230929</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09751242841618069</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08426108211975472</v>
+        <v>0.08489427983867637</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1118723292853995</v>
+        <v>0.1129216065965758</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>27392</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18006</v>
+        <v>17959</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39895</v>
+        <v>40362</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02698991398797501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0177420442509445</v>
+        <v>0.01769571919582017</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03930896353589958</v>
+        <v>0.03976879342219666</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3798,19 +3798,19 @@
         <v>21941</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13183</v>
+        <v>14196</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33351</v>
+        <v>34315</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02129888742477109</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01279772560772905</v>
+        <v>0.01378097678042631</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03237554227421401</v>
+        <v>0.03331116828835912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -3819,19 +3819,19 @@
         <v>49333</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36472</v>
+        <v>35920</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65514</v>
+        <v>66294</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02412321056475398</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01783449183004874</v>
+        <v>0.01756464153835448</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03203552651519293</v>
+        <v>0.03241715852649833</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>3234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8796</v>
+        <v>8861</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003186963614329437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001020943624731267</v>
+        <v>0.001024450563062442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008666727929531916</v>
+        <v>0.008730667925231219</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3869,19 +3869,19 @@
         <v>5940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2125</v>
+        <v>1111</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14241</v>
+        <v>14720</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005766077290459703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002062563941603084</v>
+        <v>0.001078872471886867</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0138243569294812</v>
+        <v>0.01428935947828192</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -3890,19 +3890,19 @@
         <v>9174</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4069</v>
+        <v>3965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19519</v>
+        <v>18707</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004486123602800199</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001989674357232729</v>
+        <v>0.001938939039962074</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009544630259247788</v>
+        <v>0.009147447140079262</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>475980</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>446395</v>
+        <v>444830</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>501340</v>
+        <v>504374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6318904645019741</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5926137608384821</v>
+        <v>0.5905361077806226</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6655563780351327</v>
+        <v>0.6695852863950388</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>430</v>
@@ -4015,19 +4015,19 @@
         <v>472874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>445008</v>
+        <v>445381</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>502768</v>
+        <v>500894</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6084531606107682</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.572598065134268</v>
+        <v>0.5730771612343745</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6469177455699314</v>
+        <v>0.6445071997497868</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>869</v>
@@ -4036,19 +4036,19 @@
         <v>948854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>907610</v>
+        <v>907456</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>988482</v>
+        <v>988782</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6199887300339663</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5930393280927774</v>
+        <v>0.59293887218818</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6458815960455297</v>
+        <v>0.6460780038861041</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>173312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151126</v>
+        <v>152031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199022</v>
+        <v>201464</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2300810240904861</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2006275433475089</v>
+        <v>0.2018291220111353</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2642131601511216</v>
+        <v>0.267455000780656</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>181</v>
@@ -4089,16 +4089,16 @@
         <v>174000</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225156</v>
+        <v>225992</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2553252166887547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2238884907822176</v>
+        <v>0.2238879263710938</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.289711513601277</v>
+        <v>0.2907867983763472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>335</v>
@@ -4107,19 +4107,19 @@
         <v>371744</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>336054</v>
+        <v>337749</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409170</v>
+        <v>409985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2429003175791273</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2195800059057391</v>
+        <v>0.2206879037288556</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2673549430783364</v>
+        <v>0.267887253584857</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>86051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>68975</v>
+        <v>67763</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107403</v>
+        <v>104794</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.114237374539067</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09156870720596411</v>
+        <v>0.08995916567183576</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1425831466809505</v>
+        <v>0.1391192405652681</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>73</v>
@@ -4157,19 +4157,19 @@
         <v>81633</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>64232</v>
+        <v>64875</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99900</v>
+        <v>100998</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1050382155614131</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08264853174761221</v>
+        <v>0.08347611001189791</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1285431612107883</v>
+        <v>0.1299553475212822</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>150</v>
@@ -4178,19 +4178,19 @@
         <v>167684</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>142722</v>
+        <v>142279</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>192543</v>
+        <v>193321</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1095659350258341</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09325548455976518</v>
+        <v>0.09296592085028504</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1258087912470641</v>
+        <v>0.1263173901743208</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>11834</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5862</v>
+        <v>6731</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21150</v>
+        <v>20987</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01571039743818279</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007782719936260589</v>
+        <v>0.008935951359626817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02807740414480007</v>
+        <v>0.02786128889760763</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -4228,19 +4228,19 @@
         <v>19101</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11193</v>
+        <v>11359</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30754</v>
+        <v>31034</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02457795620574571</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01440275053422287</v>
+        <v>0.01461560036439659</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03957155011239182</v>
+        <v>0.03993249341891159</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -4249,19 +4249,19 @@
         <v>30935</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21238</v>
+        <v>20770</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46060</v>
+        <v>46023</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02021344652270604</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01387686518940248</v>
+        <v>0.01357105204354012</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03009622411973774</v>
+        <v>0.03007207388498025</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>6087</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15203</v>
+        <v>16123</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008080739430290061</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002644958433715084</v>
+        <v>0.002665988777026039</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02018251258404223</v>
+        <v>0.02140392233033847</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4299,19 +4299,19 @@
         <v>5134</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1963</v>
+        <v>2054</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11714</v>
+        <v>12341</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006605450933318247</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00252579773698326</v>
+        <v>0.002643255620851413</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01507252825362283</v>
+        <v>0.01587980312171494</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -4320,19 +4320,19 @@
         <v>11221</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5094</v>
+        <v>5291</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21251</v>
+        <v>23861</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007331570838366266</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003328278979281213</v>
+        <v>0.003457489874614881</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01388542248201485</v>
+        <v>0.01559120183014183</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>541315</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>510797</v>
+        <v>504313</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>570830</v>
+        <v>572947</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5717475871898718</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5395137194199492</v>
+        <v>0.5326652835158066</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6029218027392734</v>
+        <v>0.6051574288053224</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>553</v>
@@ -4445,19 +4445,19 @@
         <v>580497</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>546898</v>
+        <v>546325</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>613102</v>
+        <v>609311</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5535095465804375</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5214722491824125</v>
+        <v>0.520925979427153</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5845985903029628</v>
+        <v>0.5809842444225981</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1077</v>
@@ -4466,19 +4466,19 @@
         <v>1121813</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1080412</v>
+        <v>1078558</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1166563</v>
+        <v>1165396</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5621625290977595</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5414156195532671</v>
+        <v>0.5404867504092227</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5845879582112588</v>
+        <v>0.5840031667655461</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>259252</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233317</v>
+        <v>231206</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>287580</v>
+        <v>289425</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2738267811901781</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2464335898574076</v>
+        <v>0.2442046432940289</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3037478790359538</v>
+        <v>0.3056962433448646</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>291</v>
@@ -4516,19 +4516,19 @@
         <v>303008</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>273093</v>
+        <v>274421</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>333150</v>
+        <v>333690</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.288921353885139</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2603967504150659</v>
+        <v>0.2616631037509296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3176615972337309</v>
+        <v>0.3181770108866498</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>539</v>
@@ -4537,19 +4537,19 @@
         <v>562260</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>524299</v>
+        <v>522788</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>602939</v>
+        <v>605275</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.281759780093688</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2627365348739223</v>
+        <v>0.2619793474320657</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3021447730672694</v>
+        <v>0.3033151605394203</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>121680</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>103565</v>
+        <v>99445</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>145038</v>
+        <v>143290</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1285210168336174</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1093872637805629</v>
+        <v>0.1050358535124154</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1531915596922083</v>
+        <v>0.1513459679097608</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>124</v>
@@ -4587,19 +4587,19 @@
         <v>131070</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111307</v>
+        <v>110748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>154303</v>
+        <v>152734</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1249762781540245</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1061322821311532</v>
+        <v>0.1055996114281343</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1471297143449573</v>
+        <v>0.1456330332115013</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>236</v>
@@ -4608,19 +4608,19 @@
         <v>252750</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>220547</v>
+        <v>224245</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>282882</v>
+        <v>283088</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1266580685656067</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1105203978706364</v>
+        <v>0.1123734880600743</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1417578837407792</v>
+        <v>0.1418607462791616</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>21644</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14010</v>
+        <v>13514</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32480</v>
+        <v>32126</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02286132059159304</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01479749242196509</v>
+        <v>0.01427324445970966</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03430636927930224</v>
+        <v>0.03393162525448712</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -4658,19 +4658,19 @@
         <v>19644</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11550</v>
+        <v>12715</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29846</v>
+        <v>30442</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01873110955519256</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01101315915613673</v>
+        <v>0.01212425466506573</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02845872325190799</v>
+        <v>0.02902702772418026</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -4679,19 +4679,19 @@
         <v>41289</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30454</v>
+        <v>31235</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55264</v>
+        <v>57327</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02069067553358701</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01526119093432246</v>
+        <v>0.0156525633778938</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02769413073759106</v>
+        <v>0.02872751674801474</v>
       </c>
     </row>
     <row r="26">
@@ -4711,16 +4711,16 @@
         <v>890</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7872</v>
+        <v>7739</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003043294194739579</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0009399540388329412</v>
+        <v>0.0009405423009126106</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008314098105627339</v>
+        <v>0.008174448627520297</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -4729,19 +4729,19 @@
         <v>14538</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7972</v>
+        <v>7987</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24810</v>
+        <v>24303</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01386171182520645</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007601369979507267</v>
+        <v>0.007615530321112115</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02365649191963432</v>
+        <v>0.02317317073612949</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -4750,19 +4750,19 @@
         <v>17419</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10419</v>
+        <v>10480</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27573</v>
+        <v>28040</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008728946709358736</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005220974515031543</v>
+        <v>0.005251699386618784</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01381724947019292</v>
+        <v>0.01405157663828407</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>2079786</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2020596</v>
+        <v>2015455</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2137016</v>
+        <v>2136076</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.60857908170942</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5912591223835288</v>
+        <v>0.5897547843504936</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6253257689974403</v>
+        <v>0.6250505566502921</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1936</v>
@@ -4875,19 +4875,19 @@
         <v>2083467</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2024013</v>
+        <v>2024739</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2150304</v>
+        <v>2140073</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5863776678814454</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5696447988298398</v>
+        <v>0.5698489494380717</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6051884066962593</v>
+        <v>0.6023090186360152</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3895</v>
@@ -4896,19 +4896,19 @@
         <v>4163253</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4084222</v>
+        <v>4069457</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4249408</v>
+        <v>4242656</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5972623191773807</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5859244542548138</v>
+        <v>0.5838063889571107</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6096222282531554</v>
+        <v>0.6086535157623943</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>888351</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>834448</v>
+        <v>837020</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>941028</v>
+        <v>943054</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2599460653385064</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2441731406577988</v>
+        <v>0.244925575364485</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2753600534485272</v>
+        <v>0.2759530294190881</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>939</v>
@@ -4946,19 +4946,19 @@
         <v>1012396</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>956134</v>
+        <v>958207</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1067721</v>
+        <v>1067518</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2849319932191871</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2690974830913869</v>
+        <v>0.2696809517424099</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3005028693364163</v>
+        <v>0.3004456884085186</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1765</v>
@@ -4967,19 +4967,19 @@
         <v>1900748</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1820999</v>
+        <v>1828260</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1971062</v>
+        <v>1981254</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2726821827164022</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2612413510552118</v>
+        <v>0.2622831217240497</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2827695983545003</v>
+        <v>0.2842317270087677</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>357038</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>320978</v>
+        <v>324754</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>394175</v>
+        <v>398966</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1044751284042466</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09392345948885304</v>
+        <v>0.09502837313982332</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.115342041551227</v>
+        <v>0.1167438593296577</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>320</v>
@@ -5017,19 +5017,19 @@
         <v>347276</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>312009</v>
+        <v>311538</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>388044</v>
+        <v>383313</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09773857582222337</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08781278968089942</v>
+        <v>0.08768028799813268</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1092122641902804</v>
+        <v>0.1078807497495717</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>649</v>
@@ -5038,19 +5038,19 @@
         <v>704314</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>648440</v>
+        <v>651401</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>752335</v>
+        <v>758725</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1010412945751914</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09302557909515395</v>
+        <v>0.09345031467211275</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1079303663676397</v>
+        <v>0.108847020174665</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>74059</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>57992</v>
+        <v>57723</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>94716</v>
+        <v>91545</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02167096198764362</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01696950738029021</v>
+        <v>0.01689061344045568</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02771554988394117</v>
+        <v>0.02678768816576082</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>70</v>
@@ -5088,19 +5088,19 @@
         <v>78344</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>61879</v>
+        <v>61210</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>97327</v>
+        <v>96875</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02204937749965255</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01741536829656676</v>
+        <v>0.0172272240246575</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02739196424909595</v>
+        <v>0.02726488092907699</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>140</v>
@@ -5109,19 +5109,19 @@
         <v>152403</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>128053</v>
+        <v>128069</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>178415</v>
+        <v>178071</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02186385233782704</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01837061590098876</v>
+        <v>0.01837287396770606</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.025595495311218</v>
+        <v>0.02554609222293189</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>18211</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10878</v>
+        <v>10591</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30408</v>
+        <v>28588</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005328762560183411</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003183004877162041</v>
+        <v>0.003098954641554391</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008897972106544767</v>
+        <v>0.008365367682032337</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -5159,19 +5159,19 @@
         <v>31631</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20768</v>
+        <v>21147</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>44789</v>
+        <v>45052</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008902385577491519</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005845098663642796</v>
+        <v>0.005951803159397567</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01260552134530358</v>
+        <v>0.01267965276303095</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>44</v>
@@ -5180,19 +5180,19 @@
         <v>49842</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>36982</v>
+        <v>36788</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>67766</v>
+        <v>65425</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007150351193198634</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005305455576737346</v>
+        <v>0.005277690739304789</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00972180117460276</v>
+        <v>0.009385941564016662</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>314886</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>287688</v>
+        <v>289661</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>339469</v>
+        <v>339177</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4673693947019877</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.427000744862629</v>
+        <v>0.4299290045912267</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5038560707664648</v>
+        <v>0.5034226286141956</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>314</v>
@@ -5545,19 +5545,19 @@
         <v>315902</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>292952</v>
+        <v>288615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>341784</v>
+        <v>341448</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4708912914365736</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4366819967576233</v>
+        <v>0.430217628612432</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5094727175836695</v>
+        <v>0.5089718426481907</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>619</v>
@@ -5566,19 +5566,19 @@
         <v>630788</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>592487</v>
+        <v>594256</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>667466</v>
+        <v>672625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4691265680367172</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4406414014304584</v>
+        <v>0.4419568744747013</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4964045531067102</v>
+        <v>0.5002410142592614</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>241254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>217004</v>
+        <v>215046</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267646</v>
+        <v>267671</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3580811092337813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3220874746343855</v>
+        <v>0.3191815223395048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3972535013728865</v>
+        <v>0.3972894883863287</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -5616,19 +5616,19 @@
         <v>245324</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>219814</v>
+        <v>219180</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269109</v>
+        <v>270423</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3656857720875573</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3276602978721916</v>
+        <v>0.3267149283430137</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.401141362053456</v>
+        <v>0.4030991651659184</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>477</v>
@@ -5637,19 +5637,19 @@
         <v>486578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>450100</v>
+        <v>452066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>520982</v>
+        <v>521316</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3618752894137501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3347465095352473</v>
+        <v>0.3362081791036928</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3874622200561725</v>
+        <v>0.3877105280383456</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>93668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76520</v>
+        <v>78259</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113158</v>
+        <v>114285</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1390264161584448</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1135747633016946</v>
+        <v>0.1161553821067925</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1679541522283144</v>
+        <v>0.1696269168345044</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>87</v>
@@ -5687,19 +5687,19 @@
         <v>88464</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72150</v>
+        <v>73383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>106913</v>
+        <v>108305</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1318668851669935</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1075493310383396</v>
+        <v>0.109386809067099</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1593668316023742</v>
+        <v>0.161442696460207</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>178</v>
@@ -5708,19 +5708,19 @@
         <v>182132</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>156990</v>
+        <v>157306</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>208752</v>
+        <v>207125</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1354543247839865</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1167557629952983</v>
+        <v>0.1169908729380367</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1552523698551139</v>
+        <v>0.1540419343810949</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>20918</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12675</v>
+        <v>12503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32365</v>
+        <v>31840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03104676364642625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01881215248111091</v>
+        <v>0.01855738413667328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04803728588642336</v>
+        <v>0.04725905391515802</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -5758,19 +5758,19 @@
         <v>16880</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9716</v>
+        <v>9997</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28027</v>
+        <v>28676</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02516130391737121</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01448305419789348</v>
+        <v>0.01490229625008379</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04177840610945185</v>
+        <v>0.04274542366025449</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -5779,19 +5779,19 @@
         <v>37797</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27081</v>
+        <v>26005</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52911</v>
+        <v>52181</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02811034225821215</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0201406577999594</v>
+        <v>0.01934033903635367</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03935093396800741</v>
+        <v>0.03880788676189459</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>3016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8216</v>
+        <v>8121</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00447631625935983</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001474637872124703</v>
+        <v>0.001465201749712791</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01219487733997346</v>
+        <v>0.01205344359770472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -5829,19 +5829,19 @@
         <v>4290</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1045</v>
+        <v>1189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9903</v>
+        <v>11079</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006394747391504345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001557723239432552</v>
+        <v>0.00177249405628266</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0147610512791329</v>
+        <v>0.01651500023629632</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -5850,19 +5850,19 @@
         <v>7306</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3117</v>
+        <v>3036</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14131</v>
+        <v>13637</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005433475507334061</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00231849633218473</v>
+        <v>0.002257804160338438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01050967253801747</v>
+        <v>0.01014210506225814</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>528463</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>492184</v>
+        <v>495345</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>562247</v>
+        <v>559471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5168687713872637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4813855480994609</v>
+        <v>0.4844776538373382</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.549912000563719</v>
+        <v>0.5471971244344059</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>522</v>
@@ -5975,19 +5975,19 @@
         <v>550566</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>517328</v>
+        <v>517581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>581939</v>
+        <v>583103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5279116676650877</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4960417945821112</v>
+        <v>0.4962837172109484</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5579940693129298</v>
+        <v>0.5591101949558619</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1016</v>
@@ -5996,19 +5996,19 @@
         <v>1079029</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1031847</v>
+        <v>1033614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1123655</v>
+        <v>1126566</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5224449757107713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4996007320727128</v>
+        <v>0.5004559389425951</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5440520941841342</v>
+        <v>0.54546171988643</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>326950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296782</v>
+        <v>296932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>355993</v>
+        <v>358325</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3197768801518948</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2902708576399963</v>
+        <v>0.2904177965158448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3481827677089411</v>
+        <v>0.3504637175850628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -6046,19 +6046,19 @@
         <v>349728</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321084</v>
+        <v>316459</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>383240</v>
+        <v>380624</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3353377325594101</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3078722016927234</v>
+        <v>0.3034379392669272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3674708420641167</v>
+        <v>0.3649625654083734</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -6067,19 +6067,19 @@
         <v>676678</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>631788</v>
+        <v>632549</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>721739</v>
+        <v>719452</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3276344648189264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3058995682042048</v>
+        <v>0.3062681847426756</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3494520248159363</v>
+        <v>0.3483449861321182</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>140541</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>117704</v>
+        <v>119666</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>163850</v>
+        <v>163883</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1374579389007982</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1151221595355644</v>
+        <v>0.1170402113957879</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1602557161523235</v>
+        <v>0.1602872503197178</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>110</v>
@@ -6117,19 +6117,19 @@
         <v>119531</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>97991</v>
+        <v>98690</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>139802</v>
+        <v>141182</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1146122575930599</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09395882000745777</v>
+        <v>0.09462927209823993</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1340497223523554</v>
+        <v>0.1353730049165407</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>240</v>
@@ -6138,19 +6138,19 @@
         <v>260072</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>230283</v>
+        <v>227759</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>292741</v>
+        <v>292509</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1259218179705027</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1114987809267769</v>
+        <v>0.1102765031550943</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1417394764126207</v>
+        <v>0.1416270815279309</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>19571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12076</v>
+        <v>12172</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30917</v>
+        <v>32283</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01914196092606779</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01181111628376313</v>
+        <v>0.01190524702243975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03023879356899477</v>
+        <v>0.03157454937875059</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -6188,19 +6188,19 @@
         <v>17118</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9692</v>
+        <v>10459</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28533</v>
+        <v>28774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01641374601306172</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009293361145823889</v>
+        <v>0.01002886783035408</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02735894686062391</v>
+        <v>0.02759050565636757</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -6209,19 +6209,19 @@
         <v>36689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25266</v>
+        <v>25546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50710</v>
+        <v>50571</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01776432562001925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01223355186653181</v>
+        <v>0.0123687884906355</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02455269079926979</v>
+        <v>0.02448558855815617</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>6906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2862</v>
+        <v>2178</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15538</v>
+        <v>14368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006754448633975494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002799082968043853</v>
+        <v>0.002130468992824515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01519719716606091</v>
+        <v>0.0140530381476944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -6259,19 +6259,19 @@
         <v>5970</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2055</v>
+        <v>2064</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13548</v>
+        <v>13499</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005724596169380656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001970421044892689</v>
+        <v>0.001979487724266388</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01299066262003672</v>
+        <v>0.01294343437395064</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -6280,19 +6280,19 @@
         <v>12876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6161</v>
+        <v>6075</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22756</v>
+        <v>23160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006234415879780299</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002982986358028494</v>
+        <v>0.002941428734007125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01101802800907358</v>
+        <v>0.01121341112390131</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>318891</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>292497</v>
+        <v>290132</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>349934</v>
+        <v>346184</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4209847103779628</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3861403513440977</v>
+        <v>0.3830179279394504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4619659904634618</v>
+        <v>0.4570157809904756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>317</v>
@@ -6405,19 +6405,19 @@
         <v>332144</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>303124</v>
+        <v>305256</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>362485</v>
+        <v>361281</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4257724899975311</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.388572011914241</v>
+        <v>0.3913040793537664</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.46466556891371</v>
+        <v>0.4631230187793337</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>610</v>
@@ -6426,19 +6426,19 @@
         <v>651036</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>611874</v>
+        <v>612968</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>692298</v>
+        <v>691231</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4234137993464319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3979442888229696</v>
+        <v>0.3986559811512158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4502499655127572</v>
+        <v>0.4495558780213572</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>285943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>257213</v>
+        <v>259274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>311240</v>
+        <v>317210</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3774879383099872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3395595120857504</v>
+        <v>0.3422814972429873</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4108836875262646</v>
+        <v>0.4187655091946225</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>273</v>
@@ -6476,19 +6476,19 @@
         <v>291957</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>265889</v>
+        <v>263577</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>321341</v>
+        <v>320888</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3742571440423978</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3408408997725181</v>
+        <v>0.3378767458964665</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4119244952231947</v>
+        <v>0.411342743622351</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>533</v>
@@ -6497,19 +6497,19 @@
         <v>577900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>537540</v>
+        <v>541843</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>611904</v>
+        <v>617690</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3758487887796456</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3495997898766837</v>
+        <v>0.3523982924804464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3979635305929738</v>
+        <v>0.4017265776632469</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>139795</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>119850</v>
+        <v>119859</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>162940</v>
+        <v>163841</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1845507940706078</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1582200294323104</v>
+        <v>0.158232521197932</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2151048434831154</v>
+        <v>0.2162942568560217</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>124</v>
@@ -6547,19 +6547,19 @@
         <v>136706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>117526</v>
+        <v>115987</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>161021</v>
+        <v>158736</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1752417676026497</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1506558186463008</v>
+        <v>0.1486820153344358</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2064108096157065</v>
+        <v>0.2034816384922006</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>253</v>
@@ -6568,19 +6568,19 @@
         <v>276501</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>243923</v>
+        <v>247028</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>306359</v>
+        <v>307726</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1798278420349536</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.158640278182507</v>
+        <v>0.1606598224249717</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1992464548215854</v>
+        <v>0.200135466224437</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>10756</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5515</v>
+        <v>5457</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19794</v>
+        <v>19830</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01419911599425407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007280818452123006</v>
+        <v>0.007204124544441149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02613091961200848</v>
+        <v>0.02617888254516013</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6618,19 +6618,19 @@
         <v>16186</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9644</v>
+        <v>8887</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26703</v>
+        <v>26049</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02074851650682631</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01236311073936277</v>
+        <v>0.01139266910123664</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0342297424715471</v>
+        <v>0.03339212042227806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -6639,19 +6639,19 @@
         <v>26942</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17438</v>
+        <v>17766</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38208</v>
+        <v>39443</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01752196662634093</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01134119862545985</v>
+        <v>0.01155435386302693</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02484913755026262</v>
+        <v>0.02565277360398181</v>
       </c>
     </row>
     <row r="20">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6650</v>
+        <v>7330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0027774412471882</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008778474596534726</v>
+        <v>0.00967636213060513</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -6692,16 +6692,16 @@
         <v>940</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7629</v>
+        <v>8123</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003980081850594971</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001204591207557676</v>
+        <v>0.001204556619271041</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009779883675628209</v>
+        <v>0.01041323837800026</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -6710,19 +6710,19 @@
         <v>5209</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1880</v>
+        <v>2029</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11725</v>
+        <v>12031</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003387603212628001</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001222805024838613</v>
+        <v>0.001319412204984747</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007625542908883012</v>
+        <v>0.007824802863908409</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>516313</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>488236</v>
+        <v>483977</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>547113</v>
+        <v>544999</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5520264579941664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5220074645987528</v>
+        <v>0.5174540415070447</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5849572929411613</v>
+        <v>0.5826962870979556</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>544</v>
@@ -6835,19 +6835,19 @@
         <v>587051</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>553976</v>
+        <v>552701</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>620171</v>
+        <v>621400</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5624282233825211</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5307411654414177</v>
+        <v>0.5295195784424812</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5941591786131155</v>
+        <v>0.5953367886719758</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1053</v>
@@ -6856,19 +6856,19 @@
         <v>1103364</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1060442</v>
+        <v>1052776</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1147060</v>
+        <v>1147108</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5575124022247545</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5358248041679896</v>
+        <v>0.5319509049071054</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5795913903869389</v>
+        <v>0.5796155738037091</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>272778</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>245916</v>
+        <v>245945</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>302955</v>
+        <v>304288</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.29164553963711</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2629264832991472</v>
+        <v>0.2629569060847273</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3239100663855406</v>
+        <v>0.3253351298080022</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>269</v>
@@ -6906,19 +6906,19 @@
         <v>292589</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>263067</v>
+        <v>264020</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>321943</v>
+        <v>321898</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2803168272880679</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2520335278714251</v>
+        <v>0.2529466952940022</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3084394765366029</v>
+        <v>0.3083965636816928</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>542</v>
@@ -6927,19 +6927,19 @@
         <v>565366</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>530249</v>
+        <v>527226</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>606811</v>
+        <v>607627</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2856707188417094</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2679262438306355</v>
+        <v>0.2663988896188954</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3066122788467242</v>
+        <v>0.3070245916617753</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>121629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>102419</v>
+        <v>100594</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>141976</v>
+        <v>140455</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1300418522185184</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1095037376760458</v>
+        <v>0.1075526054748785</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1517962908256944</v>
+        <v>0.150169751548019</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>108</v>
@@ -6977,19 +6977,19 @@
         <v>120875</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>100273</v>
+        <v>101806</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>144341</v>
+        <v>145960</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1158051478234481</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09606697069646127</v>
+        <v>0.09753604149859509</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1382871576032474</v>
+        <v>0.1398378705259304</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>231</v>
@@ -6998,19 +6998,19 @@
         <v>242504</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>213746</v>
+        <v>212318</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>275437</v>
+        <v>269784</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1225333415549186</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1080027349044849</v>
+        <v>0.1072807955493851</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1391737435967564</v>
+        <v>0.1363176912748536</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>16337</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9507</v>
+        <v>9541</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25391</v>
+        <v>24899</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01746658940496155</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0101641689490831</v>
+        <v>0.01020101166843805</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02714727338125671</v>
+        <v>0.0266211665619235</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -7048,19 +7048,19 @@
         <v>36389</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24660</v>
+        <v>25512</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49752</v>
+        <v>51019</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03486251103971549</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02362528082282079</v>
+        <v>0.02444203723975212</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0476655143255359</v>
+        <v>0.04887868485989252</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -7069,19 +7069,19 @@
         <v>52725</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38891</v>
+        <v>39967</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69175</v>
+        <v>69703</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0266412873879389</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01965094333838438</v>
+        <v>0.02019449936178916</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03495294016740618</v>
+        <v>0.03521991997335674</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>8249</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3402</v>
+        <v>3812</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15457</v>
+        <v>15753</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008819560745243661</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003637676883448389</v>
+        <v>0.004076119950694856</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01652645308010896</v>
+        <v>0.01684280001478312</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -7119,19 +7119,19 @@
         <v>6876</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2344</v>
+        <v>2452</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14068</v>
+        <v>14202</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006587290466247498</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002245949977350941</v>
+        <v>0.002348866451632792</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01347760887521046</v>
+        <v>0.0136060811546427</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -7140,19 +7140,19 @@
         <v>15125</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8813</v>
+        <v>9000</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>25602</v>
+        <v>25544</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007642249990678624</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004453315681007758</v>
+        <v>0.004547324259808423</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01293636071986603</v>
+        <v>0.01290689039162842</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1678553</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1616827</v>
+        <v>1615799</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1736884</v>
+        <v>1731650</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4952994310554586</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4770856358391976</v>
+        <v>0.4767821798902969</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5125111879595535</v>
+        <v>0.510966842303753</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1697</v>
@@ -7265,19 +7265,19 @@
         <v>1785663</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1725741</v>
+        <v>1722831</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1849481</v>
+        <v>1851131</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5047597056809202</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4878214834042138</v>
+        <v>0.4869987101615823</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5227993981761657</v>
+        <v>0.5232660067069369</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3298</v>
@@ -7286,19 +7286,19 @@
         <v>3464216</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3379028</v>
+        <v>3385119</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3549031</v>
+        <v>3554883</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5001311021651873</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4878325245155153</v>
+        <v>0.4887119104745264</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5123759042758802</v>
+        <v>0.5132207709181721</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1126925</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1067160</v>
+        <v>1072325</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1182807</v>
+        <v>1182004</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3325274556492147</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3148923502384564</v>
+        <v>0.3164163704700794</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.349016924859434</v>
+        <v>0.3487801030106688</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1111</v>
@@ -7336,19 +7336,19 @@
         <v>1179598</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1119428</v>
+        <v>1117145</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1233312</v>
+        <v>1236362</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3334411425451015</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3164328414395209</v>
+        <v>0.3157873503068256</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3486248724431186</v>
+        <v>0.3494867754178692</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2180</v>
@@ -7357,19 +7357,19 @@
         <v>2306522</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2230937</v>
+        <v>2228394</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2388740</v>
+        <v>2388987</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3329941053769416</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3220819043277664</v>
+        <v>0.3217147442401164</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3448639767565323</v>
+        <v>0.3448996309055424</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>495633</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>454984</v>
+        <v>453249</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>540047</v>
+        <v>536476</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1462490490017441</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1342543666760072</v>
+        <v>0.1337425442966727</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1593545639561281</v>
+        <v>0.158300598350118</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>429</v>
@@ -7407,19 +7407,19 @@
         <v>465575</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>426980</v>
+        <v>428002</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>504634</v>
+        <v>506898</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1316058820301405</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1206959363866178</v>
+        <v>0.1209847667060372</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.142646586658437</v>
+        <v>0.1432866262093122</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>902</v>
@@ -7428,19 +7428,19 @@
         <v>961208</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>903358</v>
+        <v>897399</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1020692</v>
+        <v>1018442</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1387703055600675</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1304183751983684</v>
+        <v>0.1295581053001981</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1473579198593773</v>
+        <v>0.1470332078886998</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>67581</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>52955</v>
+        <v>52474</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>88073</v>
+        <v>84923</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0199415038240963</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01562570389735611</v>
+        <v>0.01548366603890178</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02598802447375578</v>
+        <v>0.0250587227950277</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>77</v>
@@ -7478,19 +7478,19 @@
         <v>86572</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>68147</v>
+        <v>68638</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>106660</v>
+        <v>108408</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02447174122309654</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01926343304297045</v>
+        <v>0.01940214971196304</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03014984031557836</v>
+        <v>0.03064419796809809</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>141</v>
@@ -7499,19 +7499,19 @@
         <v>154154</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>130307</v>
+        <v>131493</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>180574</v>
+        <v>182015</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02225524396669748</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01881253474968484</v>
+        <v>0.01898377291016844</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02606958257775615</v>
+        <v>0.02627755990105595</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>20275</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11824</v>
+        <v>12592</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30274</v>
+        <v>32263</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005982560469486391</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003488980452697195</v>
+        <v>0.003715602987521658</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.00893308286344115</v>
+        <v>0.009520108261816996</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -7549,19 +7549,19 @@
         <v>20241</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12710</v>
+        <v>12162</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>31988</v>
+        <v>30457</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005721528520741208</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003592641689795304</v>
+        <v>0.003437974815449279</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.009042199003973277</v>
+        <v>0.008609521438792836</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>37</v>
@@ -7570,19 +7570,19 @@
         <v>40515</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>28966</v>
+        <v>28826</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>54236</v>
+        <v>56237</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005849242931106079</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00418185711364222</v>
+        <v>0.004161591579366209</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007830041342535341</v>
+        <v>0.008118917488049233</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>400093</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>369828</v>
+        <v>373440</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>425239</v>
+        <v>428620</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5821950783250341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5381554614734925</v>
+        <v>0.5434111906364216</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6187874913710802</v>
+        <v>0.6237069209684467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>639</v>
@@ -7935,19 +7935,19 @@
         <v>403416</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>382170</v>
+        <v>382938</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>427839</v>
+        <v>424769</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5523725783477681</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5232816707701597</v>
+        <v>0.5243326234724762</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5858133255300173</v>
+        <v>0.5816097889991095</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1035</v>
@@ -7956,19 +7956,19 @@
         <v>803509</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>767146</v>
+        <v>766226</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>838465</v>
+        <v>840793</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.566830245191812</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5411781565398321</v>
+        <v>0.5405290171444639</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5914897686610103</v>
+        <v>0.5931321765616142</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>201085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>176818</v>
+        <v>174949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226160</v>
+        <v>225906</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.292608910367771</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2572974298267876</v>
+        <v>0.2545777319775961</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3290969811802946</v>
+        <v>0.3287269544417251</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>392</v>
@@ -8006,19 +8006,19 @@
         <v>217213</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>197275</v>
+        <v>197511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236481</v>
+        <v>237555</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2974155150289227</v>
+        <v>0.2974155150289228</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2701166755371874</v>
+        <v>0.2704387745861639</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3237985206165517</v>
+        <v>0.3252685713554397</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>625</v>
@@ -8027,19 +8027,19 @@
         <v>418298</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>388089</v>
+        <v>387893</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>449980</v>
+        <v>449007</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2950853184023846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2737750206281013</v>
+        <v>0.2736368642312174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3174356540152855</v>
+        <v>0.3167490245692915</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>59907</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47051</v>
+        <v>46259</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76902</v>
+        <v>78309</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.087173949681258</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06846687009849844</v>
+        <v>0.06731413729751348</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1119045493744353</v>
+        <v>0.1139519612499189</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>131</v>
@@ -8077,19 +8077,19 @@
         <v>70585</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58880</v>
+        <v>59105</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83484</v>
+        <v>83854</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.09664805814264472</v>
+        <v>0.09664805814264474</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.080621310350992</v>
+        <v>0.08092927639278591</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1143092937113865</v>
+        <v>0.1148162807350237</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>200</v>
@@ -8098,19 +8098,19 @@
         <v>130493</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>113112</v>
+        <v>111087</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>150396</v>
+        <v>151017</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09205509967559859</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07979421680704279</v>
+        <v>0.07836567753943913</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1060960492716994</v>
+        <v>0.1065336908724779</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>15967</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9204</v>
+        <v>9160</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26450</v>
+        <v>26342</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02323459919595923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01339304602124175</v>
+        <v>0.01332975871827403</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0384892949730047</v>
+        <v>0.03833126046683275</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -8148,19 +8148,19 @@
         <v>29638</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22311</v>
+        <v>21944</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38919</v>
+        <v>38835</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04058124501320012</v>
+        <v>0.04058124501320013</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03054886883645757</v>
+        <v>0.03004666495768351</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05328888956177705</v>
+        <v>0.05317446960868182</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -8169,19 +8169,19 @@
         <v>45605</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34583</v>
+        <v>34810</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56679</v>
+        <v>58094</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03217175465261739</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02439615389407906</v>
+        <v>0.02455623535924249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03998410467998043</v>
+        <v>0.04098227953499037</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>10162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5542</v>
+        <v>5343</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17841</v>
+        <v>17662</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01478746242997764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008064396014110204</v>
+        <v>0.007775087440327878</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02596143207055807</v>
+        <v>0.02570149737407842</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -8219,19 +8219,19 @@
         <v>9482</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5860</v>
+        <v>5657</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15386</v>
+        <v>15629</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.01298260346746425</v>
+        <v>0.01298260346746426</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008024331961380539</v>
+        <v>0.007746253222393285</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02106716051582386</v>
+        <v>0.02140042447868819</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -8240,19 +8240,19 @@
         <v>19644</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13386</v>
+        <v>13148</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30560</v>
+        <v>28699</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01385758207758739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009442859451413311</v>
+        <v>0.00927500516220733</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02155802598322753</v>
+        <v>0.02024579291982683</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>548336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>511298</v>
+        <v>509293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>584227</v>
+        <v>581974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5240651771830059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4886664902882848</v>
+        <v>0.4867499731065607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5583670353554235</v>
+        <v>0.5562140888455424</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>760</v>
@@ -8365,19 +8365,19 @@
         <v>557531</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>529644</v>
+        <v>529374</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>587378</v>
+        <v>586759</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5216041338884568</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4955142567022128</v>
+        <v>0.4952611062817882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5495280431112677</v>
+        <v>0.5489486383553962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1241</v>
@@ -8386,19 +8386,19 @@
         <v>1105868</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1060030</v>
+        <v>1058654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1152722</v>
+        <v>1151922</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5228215283756822</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5011507709831521</v>
+        <v>0.500499980120701</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5449729097205078</v>
+        <v>0.5445946779896693</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>369487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>333162</v>
+        <v>336108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>406876</v>
+        <v>407738</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3531320092569981</v>
+        <v>0.353132009256998</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3184148059621566</v>
+        <v>0.3212306764792661</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3888663567483727</v>
+        <v>0.3896901457694246</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>548</v>
@@ -8436,19 +8436,19 @@
         <v>374393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>345829</v>
+        <v>347912</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>400356</v>
+        <v>403635</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3502673023279614</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3235442434094212</v>
+        <v>0.3254926180745105</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3745571654711254</v>
+        <v>0.3776252155653899</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>900</v>
@@ -8457,19 +8457,19 @@
         <v>743880</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>699805</v>
+        <v>698322</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>789531</v>
+        <v>787358</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3516843754979661</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3308469044370351</v>
+        <v>0.3301461033212928</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.373266900611344</v>
+        <v>0.3722394376114548</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>85264</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68376</v>
+        <v>68355</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106557</v>
+        <v>104745</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08148963364172095</v>
+        <v>0.08148963364172093</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06534957388713002</v>
+        <v>0.06532892531214096</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1018400120006214</v>
+        <v>0.1001090260362927</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>129</v>
@@ -8507,19 +8507,19 @@
         <v>85319</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>72380</v>
+        <v>71730</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>101332</v>
+        <v>102027</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.07982141152299865</v>
+        <v>0.07982141152299867</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06771545909533547</v>
+        <v>0.06710768659203797</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09480233160550298</v>
+        <v>0.0954526758293046</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>213</v>
@@ -8528,19 +8528,19 @@
         <v>170583</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>145223</v>
+        <v>148290</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>195948</v>
+        <v>195414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08064662431600311</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06865728123508166</v>
+        <v>0.07010689213974569</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09263821717018449</v>
+        <v>0.09238593597049502</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>32866</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22639</v>
+        <v>22810</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47244</v>
+        <v>48639</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03141106243685279</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02163681585208497</v>
+        <v>0.02180008000165774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04515279513320032</v>
+        <v>0.04648631394434151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -8578,19 +8578,19 @@
         <v>38322</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28991</v>
+        <v>28938</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49288</v>
+        <v>48754</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03585274653892517</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02712311923109722</v>
+        <v>0.02707320301842</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04611182955200612</v>
+        <v>0.04561248910222905</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -8599,19 +8599,19 @@
         <v>71188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56982</v>
+        <v>57218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89108</v>
+        <v>90673</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03365559634988326</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02693956654007881</v>
+        <v>0.02705088456150858</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0421274423664927</v>
+        <v>0.04286762520326386</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>10361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5537</v>
+        <v>5174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19898</v>
+        <v>19559</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.009902117481422104</v>
+        <v>0.009902117481422102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005292062096275441</v>
+        <v>0.004945185363827881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01901722097331938</v>
+        <v>0.01869344379818519</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -8649,19 +8649,19 @@
         <v>13312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7903</v>
+        <v>7557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27966</v>
+        <v>26997</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01245440572165783</v>
+        <v>0.01245440572165784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00739358210782051</v>
+        <v>0.00706957879813563</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02616342569880605</v>
+        <v>0.02525701377355091</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -8670,19 +8670,19 @@
         <v>23673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14726</v>
+        <v>15283</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38314</v>
+        <v>37430</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01119187546046547</v>
+        <v>0.01119187546046548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006962079076584463</v>
+        <v>0.007225583073772692</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01811388418306283</v>
+        <v>0.01769563209851106</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>421441</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>388806</v>
+        <v>386687</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>454614</v>
+        <v>453335</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5260115015165697</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4852783538346981</v>
+        <v>0.4826345050012346</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5674156358171429</v>
+        <v>0.5658193883391323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>572</v>
@@ -8795,19 +8795,19 @@
         <v>447745</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>420230</v>
+        <v>421146</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>474227</v>
+        <v>473335</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5530014997689136</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.519018020480019</v>
+        <v>0.5201485943045603</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5857086524211311</v>
+        <v>0.5846068751280673</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>916</v>
@@ -8816,19 +8816,19 @@
         <v>869186</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>828236</v>
+        <v>826556</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>915075</v>
+        <v>912481</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5395774068823408</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5141562108153924</v>
+        <v>0.5131129241367134</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5680645628879309</v>
+        <v>0.5664541660002677</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>294361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>262670</v>
+        <v>262781</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>328044</v>
+        <v>328458</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3674001259958861</v>
+        <v>0.367400125995886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3278458623900241</v>
+        <v>0.3279842402951519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4094404987630326</v>
+        <v>0.4099571969072189</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>359</v>
@@ -8866,19 +8866,19 @@
         <v>277666</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>252437</v>
+        <v>252470</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>303573</v>
+        <v>304388</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.342940097313402</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3117796302995239</v>
+        <v>0.3118202973708504</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3749365098034533</v>
+        <v>0.3759441203159102</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>612</v>
@@ -8887,19 +8887,19 @@
         <v>572028</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>531251</v>
+        <v>532494</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>614683</v>
+        <v>616285</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3551058519745156</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3297924748111548</v>
+        <v>0.3305641596718262</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3815855116309471</v>
+        <v>0.382580128033485</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>66686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49442</v>
+        <v>49486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87281</v>
+        <v>86688</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08323226242055622</v>
+        <v>0.0832322624205562</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06170933100906509</v>
+        <v>0.06176417266425425</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1089373416104819</v>
+        <v>0.1081980049539384</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82</v>
@@ -8937,19 +8937,19 @@
         <v>61734</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48029</v>
+        <v>49882</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>77093</v>
+        <v>78849</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07624588121559389</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05931984652987007</v>
+        <v>0.06160822063103887</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0952158941379483</v>
+        <v>0.09738481038501925</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -8958,19 +8958,19 @@
         <v>128419</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>104843</v>
+        <v>107974</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>155015</v>
+        <v>154185</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07972071768499885</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06508493903986549</v>
+        <v>0.06702830985436421</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09623065701943163</v>
+        <v>0.09571590741312604</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>16022</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9286</v>
+        <v>9729</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25119</v>
+        <v>24955</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01999720667830713</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01158959020906647</v>
+        <v>0.01214242342502075</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03135164878944167</v>
+        <v>0.03114679462499328</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -9008,19 +9008,19 @@
         <v>16464</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10212</v>
+        <v>10542</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24032</v>
+        <v>24458</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02033466041392034</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01261300327655909</v>
+        <v>0.01301983372911223</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0296817659306696</v>
+        <v>0.03020732042692017</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -9029,19 +9029,19 @@
         <v>32486</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23552</v>
+        <v>23498</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43798</v>
+        <v>44431</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02016682008101483</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01462083602899555</v>
+        <v>0.01458747790060933</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02718883828162201</v>
+        <v>0.0275818600831113</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>2691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7645</v>
+        <v>7870</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.003358903388680959</v>
+        <v>0.003358903388680958</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0008594675766081969</v>
+        <v>0.0008884886413971695</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009541402877858618</v>
+        <v>0.00982326218613821</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -9079,19 +9079,19 @@
         <v>6055</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2919</v>
+        <v>2775</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11960</v>
+        <v>12274</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.007477861288170166</v>
+        <v>0.007477861288170167</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003604774207484643</v>
+        <v>0.003427317282475525</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01477136908997841</v>
+        <v>0.01515948273994457</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -9100,19 +9100,19 @@
         <v>8746</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4665</v>
+        <v>4439</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15696</v>
+        <v>14958</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.005429203377129953</v>
+        <v>0.005429203377129955</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002896001446512267</v>
+        <v>0.002755696211936074</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009743628365759753</v>
+        <v>0.009285581962977305</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>589968</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>558620</v>
+        <v>557372</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>622384</v>
+        <v>623449</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5971836433173322</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5654514979757086</v>
+        <v>0.5641883980640224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6299956289439125</v>
+        <v>0.6310740684536157</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>925</v>
@@ -9225,19 +9225,19 @@
         <v>673516</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>643347</v>
+        <v>641220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>701865</v>
+        <v>699603</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6040127386287489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5769573661924904</v>
+        <v>0.5750499805116955</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6294362316746833</v>
+        <v>0.6274078726744295</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1494</v>
@@ -9246,19 +9246,19 @@
         <v>1263484</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1221050</v>
+        <v>1222990</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1302112</v>
+        <v>1305634</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6008046426828286</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5806266494715792</v>
+        <v>0.58154923723924</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6191728507502392</v>
+        <v>0.6208472392811604</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>279432</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>251446</v>
+        <v>253846</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>308206</v>
+        <v>310454</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2828495520983669</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2545215906237668</v>
+        <v>0.2569504210596897</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3119749053802202</v>
+        <v>0.314250602364186</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>437</v>
@@ -9296,19 +9296,19 @@
         <v>309818</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>282672</v>
+        <v>285585</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>337658</v>
+        <v>340651</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2778461052426918</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2535022030629293</v>
+        <v>0.2561139607474699</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3028137776198924</v>
+        <v>0.3054973093594961</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>741</v>
@@ -9317,19 +9317,19 @@
         <v>589250</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>551986</v>
+        <v>549333</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>629125</v>
+        <v>627792</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2801965684946081</v>
+        <v>0.2801965684946082</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2624769756745799</v>
+        <v>0.2612157867725548</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2991577769023821</v>
+        <v>0.2985241469066975</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>73180</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>58146</v>
+        <v>58949</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>91074</v>
+        <v>89857</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07407489581138407</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05885747067802101</v>
+        <v>0.05966943851918483</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09218776565857523</v>
+        <v>0.09095625844247995</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>108</v>
@@ -9367,19 +9367,19 @@
         <v>75417</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>61853</v>
+        <v>62403</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>89929</v>
+        <v>90640</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06763418488620054</v>
+        <v>0.06763418488620056</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05547000420284348</v>
+        <v>0.05596345065454564</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08064845865653725</v>
+        <v>0.08128658862693251</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>191</v>
@@ -9388,19 +9388,19 @@
         <v>148597</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>129946</v>
+        <v>126792</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>171591</v>
+        <v>171405</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07065982996299176</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06179106363692317</v>
+        <v>0.06029116934024054</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08159392165819231</v>
+        <v>0.08150531746667936</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>35547</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25169</v>
+        <v>24415</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51263</v>
+        <v>49942</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03598136605360547</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02547640346597741</v>
+        <v>0.02471312038355911</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05188991879832314</v>
+        <v>0.05055264122949162</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -9438,19 +9438,19 @@
         <v>39993</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31196</v>
+        <v>31097</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51850</v>
+        <v>51026</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03586625210078951</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02797688517077374</v>
+        <v>0.02788825416994006</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04649980549042797</v>
+        <v>0.0457605899796425</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>97</v>
@@ -9459,19 +9459,19 @@
         <v>75540</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61005</v>
+        <v>60913</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93847</v>
+        <v>92256</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03592032904488052</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02900879660636192</v>
+        <v>0.02896494565986368</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04462538240525787</v>
+        <v>0.04386888385656507</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>9791</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4870</v>
+        <v>4918</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17102</v>
+        <v>16982</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.009910542719311372</v>
+        <v>0.00991054271931137</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004929204913133031</v>
+        <v>0.004977651676078566</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01731080378772391</v>
+        <v>0.01719014513876294</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -9509,19 +9509,19 @@
         <v>16325</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10532</v>
+        <v>10616</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23853</v>
+        <v>23589</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0146407191415692</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009445248704560819</v>
+        <v>0.00952087691475618</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02139117346661699</v>
+        <v>0.02115442474624092</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -9530,19 +9530,19 @@
         <v>26116</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18500</v>
+        <v>18398</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36542</v>
+        <v>36251</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01241862981469097</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008797156620374672</v>
+        <v>0.008748600572811583</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01737612886063056</v>
+        <v>0.01723797567765207</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1959838</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1897097</v>
+        <v>1895186</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2023993</v>
+        <v>2024399</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5563540081489365</v>
+        <v>0.5563540081489367</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5385431642499429</v>
+        <v>0.5380006057415836</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5745659908697974</v>
+        <v>0.5746812267892735</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2896</v>
@@ -9655,19 +9655,19 @@
         <v>2082210</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2029721</v>
+        <v>2028819</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2139046</v>
+        <v>2143489</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5591406296225848</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5450458470535542</v>
+        <v>0.5448036776689495</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5744031661787663</v>
+        <v>0.5755962604785433</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4686</v>
@@ -9676,19 +9676,19 @@
         <v>4042048</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3956760</v>
+        <v>3960364</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4125681</v>
+        <v>4132304</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5577860231717942</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5460166008501203</v>
+        <v>0.5465139445516206</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5693271266744363</v>
+        <v>0.5702410131119954</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1144365</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1087321</v>
+        <v>1089289</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1205977</v>
+        <v>1203464</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3248595127000202</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3086659056669643</v>
+        <v>0.3092246023683884</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3423496485769625</v>
+        <v>0.3416362918050831</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1736</v>
@@ -9726,19 +9726,19 @@
         <v>1179090</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1129107</v>
+        <v>1123172</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1230932</v>
+        <v>1228973</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3166237694630229</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.303201866674067</v>
+        <v>0.3016080470675709</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3305449672121802</v>
+        <v>0.3300191424378247</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2878</v>
@@ -9747,19 +9747,19 @@
         <v>2323455</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2244229</v>
+        <v>2239314</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2399455</v>
+        <v>2398949</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3206272521826499</v>
+        <v>0.32062725218265</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3096944151546858</v>
+        <v>0.3090161549175982</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3311149316644894</v>
+        <v>0.3310451861887852</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>285037</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>249533</v>
+        <v>252409</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>323995</v>
+        <v>324910</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08091545883561485</v>
+        <v>0.08091545883561482</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07083691376485615</v>
+        <v>0.07165324728295537</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09197481597406325</v>
+        <v>0.09223470341544718</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>450</v>
@@ -9797,19 +9797,19 @@
         <v>293055</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>266591</v>
+        <v>265599</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>323965</v>
+        <v>322876</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07869478215772535</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07158825307141539</v>
+        <v>0.07132188440234814</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08699507965785144</v>
+        <v>0.08670274721723825</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>742</v>
@@ -9818,19 +9818,19 @@
         <v>578092</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>534839</v>
+        <v>531957</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>626319</v>
+        <v>628120</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07977427680076751</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07380559688147038</v>
+        <v>0.07340784571285464</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08642939309803516</v>
+        <v>0.08667803179706383</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>100401</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>82456</v>
+        <v>80535</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>121200</v>
+        <v>122763</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02850169143242522</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02340733264690191</v>
+        <v>0.02286209211841292</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03440604376873278</v>
+        <v>0.03484969901620587</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>196</v>
@@ -9868,19 +9868,19 @@
         <v>124418</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>106185</v>
+        <v>108647</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>143101</v>
+        <v>143887</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03341017681120682</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02851400413819</v>
+        <v>0.02917525245954224</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03842726385090022</v>
+        <v>0.03863842873944616</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>301</v>
@@ -9889,19 +9889,19 @@
         <v>224819</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>200247</v>
+        <v>197280</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>252938</v>
+        <v>252766</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0310241096612238</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02763332062107808</v>
+        <v>0.02722379152350944</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03490440078278965</v>
+        <v>0.03488061030395082</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>33005</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23800</v>
+        <v>22746</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46884</v>
+        <v>45985</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009369328883003224</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006756416121894644</v>
+        <v>0.006457086918585634</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01330936651789374</v>
+        <v>0.01305409900388754</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>68</v>
@@ -9939,19 +9939,19 @@
         <v>45174</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>34585</v>
+        <v>34609</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>58986</v>
+        <v>60570</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.01213064194546018</v>
+        <v>0.01213064194546017</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009287199459045506</v>
+        <v>0.009293724484513117</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01583972094900796</v>
+        <v>0.01626496595309936</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -9960,19 +9960,19 @@
         <v>78179</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>63324</v>
+        <v>61669</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>97217</v>
+        <v>96871</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01078833818356469</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008738398948838887</v>
+        <v>0.008510121219850623</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01341548440291868</v>
+        <v>0.01336776308524069</v>
       </c>
     </row>
     <row r="33">
